--- a/data/trans_orig/P36B08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DC76BE4-B4F7-49EC-8385-BCCC8F2EF1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8470893F-9EFE-4952-9608-8FF4C2FCB568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14ECF4A3-B6C5-4C12-AA56-FFC25CBC27DC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BD393D18-183D-4734-840A-9D1A7AA34C73}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="727">
-  <si>
-    <t>Población según la frecuencia de consumición de verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="717">
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -94,2131 +94,2101 @@
     <t>1,95%</t>
   </si>
   <si>
-    <t>6,37%</t>
+    <t>5,96%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2015 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
   </si>
   <si>
     <t>49,95%</t>
   </si>
   <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de verduras, ensaladas y hortalizas en 2015 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
   </si>
   <si>
     <t>44,6%</t>
   </si>
   <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
   </si>
   <si>
     <t>42,03%</t>
   </si>
   <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
   </si>
   <si>
     <t>43,29%</t>
   </si>
   <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
   </si>
   <si>
     <t>27,7%</t>
   </si>
   <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
     <t>35,38%</t>
   </si>
   <si>
-    <t>33,7%</t>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
   </si>
   <si>
     <t>31,62%</t>
   </si>
   <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
   </si>
 </sst>
 </file>
@@ -2630,7 +2600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52565DB6-BB99-415E-991D-AC6F8D75920A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A32A1F-7806-4032-99E7-C73EAD94060D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2889,16 +2859,16 @@
         <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7">
         <v>49</v>
@@ -2907,13 +2877,13 @@
         <v>53871</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>52</v>
@@ -2922,13 +2892,13 @@
         <v>44749</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M7" s="7">
         <v>101</v>
@@ -2937,19 +2907,19 @@
         <v>98621</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
         <v>33</v>
@@ -2958,13 +2928,13 @@
         <v>36630</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -2973,13 +2943,13 @@
         <v>46654</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>84</v>
@@ -2988,13 +2958,13 @@
         <v>83284</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +2979,13 @@
         <v>115358</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>128</v>
@@ -3024,13 +2994,13 @@
         <v>112755</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>233</v>
@@ -3039,18 +3009,18 @@
         <v>228113</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3062,13 +3032,13 @@
         <v>11754</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3077,13 +3047,13 @@
         <v>2807</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3092,13 +3062,13 @@
         <v>14561</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,10 +3083,10 @@
         <v>21908</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>67</v>
@@ -3206,7 +3176,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="7">
         <v>295</v>
@@ -3257,7 +3227,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7">
         <v>116</v>
@@ -3317,13 +3287,13 @@
         <v>578654</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>568</v>
@@ -3332,13 +3302,13 @@
         <v>575596</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>1146</v>
@@ -3347,13 +3317,13 @@
         <v>1154250</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,7 +3484,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7">
         <v>365</v>
@@ -3565,7 +3535,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7">
         <v>193</v>
@@ -3625,13 +3595,13 @@
         <v>961800</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>907</v>
@@ -3640,13 +3610,13 @@
         <v>967333</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>1803</v>
@@ -3655,13 +3625,13 @@
         <v>1929133</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,10 +3666,10 @@
         <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -3708,13 +3678,13 @@
         <v>32502</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3699,13 @@
         <v>53436</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -3744,13 +3714,13 @@
         <v>36590</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>89</v>
@@ -3759,13 +3729,13 @@
         <v>90027</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3750,13 @@
         <v>209267</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>159</v>
@@ -3795,13 +3765,13 @@
         <v>155032</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>356</v>
@@ -3810,19 +3780,19 @@
         <v>364300</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="7">
         <v>237</v>
@@ -3831,13 +3801,13 @@
         <v>251064</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>278</v>
@@ -3846,13 +3816,13 @@
         <v>278017</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>515</v>
@@ -3861,19 +3831,19 @@
         <v>529081</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7">
         <v>134</v>
@@ -3882,13 +3852,13 @@
         <v>142015</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>212</v>
@@ -3897,13 +3867,13 @@
         <v>204426</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>346</v>
@@ -3912,13 +3882,13 @@
         <v>346441</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3903,13 @@
         <v>678509</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>696</v>
@@ -3948,13 +3918,13 @@
         <v>683841</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>1337</v>
@@ -3963,18 +3933,18 @@
         <v>1362350</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3986,10 +3956,10 @@
         <v>21813</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>194</v>
@@ -4007,7 +3977,7 @@
         <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="M28" s="7">
         <v>38</v>
@@ -4016,13 +3986,13 @@
         <v>34588</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4007,13 @@
         <v>77319</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>43</v>
@@ -4052,13 +4022,13 @@
         <v>46016</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>124</v>
@@ -4067,13 +4037,13 @@
         <v>123335</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4058,13 @@
         <v>264426</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>256</v>
@@ -4103,13 +4073,13 @@
         <v>261793</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>535</v>
@@ -4130,7 +4100,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="7">
         <v>413</v>
@@ -4172,16 +4142,16 @@
         <v>224</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>48</v>
+        <v>225</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="7">
         <v>195</v>
@@ -4190,13 +4160,13 @@
         <v>185446</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>252</v>
@@ -4205,13 +4175,13 @@
         <v>267287</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>447</v>
@@ -4220,13 +4190,13 @@
         <v>452734</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4211,13 @@
         <v>941388</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
         <v>997</v>
@@ -4256,13 +4226,13 @@
         <v>1038612</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
         <v>1990</v>
@@ -4271,13 +4241,13 @@
         <v>1980000</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4264,13 @@
         <v>72877</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="H34" s="7">
         <v>41</v>
@@ -4330,7 +4300,7 @@
         <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>65</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4315,13 @@
         <v>227737</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H35" s="7">
         <v>143</v>
@@ -4360,10 +4330,10 @@
         <v>146558</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>244</v>
+        <v>71</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>245</v>
@@ -4393,7 +4363,7 @@
         <v>885</v>
       </c>
       <c r="D36" s="7">
-        <v>903964</v>
+        <v>903965</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>249</v>
@@ -4426,34 +4396,34 @@
         <v>1692398</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="7">
         <v>1359</v>
       </c>
       <c r="D37" s="7">
-        <v>1384429</v>
+        <v>1384430</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>1424</v>
@@ -4462,13 +4432,13 @@
         <v>1460208</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M37" s="7">
         <v>2783</v>
@@ -4477,19 +4447,19 @@
         <v>2844638</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="7">
         <v>671</v>
@@ -4498,13 +4468,13 @@
         <v>686702</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H38" s="7">
         <v>908</v>
@@ -4513,13 +4483,13 @@
         <v>941363</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M38" s="7">
         <v>1579</v>
@@ -4528,13 +4498,13 @@
         <v>1628064</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,16 +4516,16 @@
         <v>3213</v>
       </c>
       <c r="D39" s="7">
-        <v>3275709</v>
+        <v>3275710</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H39" s="7">
         <v>3296</v>
@@ -4564,13 +4534,13 @@
         <v>3378138</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M39" s="7">
         <v>6509</v>
@@ -4579,18 +4549,18 @@
         <v>6653847</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4611,7 +4581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D50D7F-81B4-4E65-91A5-79CA9FD3AF1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568CBDB2-A383-4386-914D-80B871837496}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4628,7 +4598,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4735,13 +4705,13 @@
         <v>868</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4750,13 +4720,13 @@
         <v>1213</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4765,13 +4735,13 @@
         <v>2080</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4756,13 @@
         <v>3153</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4807,7 +4777,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -4816,13 +4786,13 @@
         <v>5183</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>285</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,7 +4849,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7">
         <v>36</v>
@@ -4930,7 +4900,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
         <v>55</v>
@@ -4990,13 +4960,13 @@
         <v>115765</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>99</v>
@@ -5005,13 +4975,13 @@
         <v>111905</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>221</v>
@@ -5020,18 +4990,18 @@
         <v>227670</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5043,13 +5013,13 @@
         <v>5858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5058,13 +5028,13 @@
         <v>6108</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>106</v>
+        <v>316</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>313</v>
+        <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -5073,13 +5043,13 @@
         <v>11966</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>318</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>102</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5064,13 @@
         <v>24347</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>112</v>
+        <v>323</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -5109,13 +5079,13 @@
         <v>14812</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M11" s="7">
         <v>38</v>
@@ -5124,13 +5094,13 @@
         <v>39159</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>321</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5115,13 @@
         <v>112378</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H12" s="7">
         <v>80</v>
@@ -5160,13 +5130,13 @@
         <v>86239</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M12" s="7">
         <v>185</v>
@@ -5175,19 +5145,19 @@
         <v>198617</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="7">
         <v>193</v>
@@ -5196,13 +5166,13 @@
         <v>206203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -5211,13 +5181,13 @@
         <v>219410</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>337</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
         <v>400</v>
@@ -5226,19 +5196,19 @@
         <v>425613</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7">
         <v>224</v>
@@ -5247,13 +5217,13 @@
         <v>237847</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
         <v>243</v>
@@ -5262,13 +5232,13 @@
         <v>258576</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>467</v>
@@ -5277,13 +5247,13 @@
         <v>496423</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5268,13 @@
         <v>586633</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>551</v>
@@ -5313,13 +5283,13 @@
         <v>585145</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>1102</v>
@@ -5328,13 +5298,13 @@
         <v>1171778</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5321,13 @@
         <v>15400</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5366,13 +5336,13 @@
         <v>8279</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -5381,13 +5351,13 @@
         <v>23680</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>359</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5372,13 @@
         <v>52678</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -5417,13 +5387,13 @@
         <v>41174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -5432,13 +5402,13 @@
         <v>93852</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5423,13 @@
         <v>228971</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>365</v>
+        <v>145</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H18" s="7">
         <v>168</v>
@@ -5468,13 +5438,13 @@
         <v>184024</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M18" s="7">
         <v>383</v>
@@ -5483,19 +5453,19 @@
         <v>412995</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7">
         <v>334</v>
@@ -5504,13 +5474,13 @@
         <v>371337</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H19" s="7">
         <v>303</v>
@@ -5519,13 +5489,13 @@
         <v>334072</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M19" s="7">
         <v>637</v>
@@ -5534,19 +5504,19 @@
         <v>705409</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7">
         <v>321</v>
@@ -5555,13 +5525,13 @@
         <v>345510</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H20" s="7">
         <v>423</v>
@@ -5570,13 +5540,13 @@
         <v>461550</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M20" s="7">
         <v>744</v>
@@ -5585,13 +5555,13 @@
         <v>807060</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5576,13 @@
         <v>1013896</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>938</v>
@@ -5621,13 +5591,13 @@
         <v>1029099</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>1870</v>
@@ -5636,13 +5606,13 @@
         <v>2042995</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +5629,13 @@
         <v>18298</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>391</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>66</v>
+        <v>395</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -5674,13 +5644,13 @@
         <v>9940</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>394</v>
+        <v>69</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -5689,13 +5659,13 @@
         <v>28238</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>63</v>
+        <v>399</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5680,13 @@
         <v>31852</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -5725,13 +5695,13 @@
         <v>18600</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>110</v>
+        <v>404</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>239</v>
+        <v>151</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="M23" s="7">
         <v>48</v>
@@ -5740,13 +5710,13 @@
         <v>50452</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,13 +5731,13 @@
         <v>206104</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H24" s="7">
         <v>157</v>
@@ -5776,13 +5746,13 @@
         <v>168820</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>408</v>
+        <v>328</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M24" s="7">
         <v>348</v>
@@ -5791,19 +5761,19 @@
         <v>374923</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="7">
         <v>259</v>
@@ -5812,13 +5782,13 @@
         <v>292942</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>413</v>
+        <v>136</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H25" s="7">
         <v>283</v>
@@ -5827,13 +5797,13 @@
         <v>312054</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M25" s="7">
         <v>542</v>
@@ -5842,19 +5812,19 @@
         <v>604996</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>420</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7">
         <v>187</v>
@@ -5863,13 +5833,13 @@
         <v>206342</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="H26" s="7">
         <v>237</v>
@@ -5878,13 +5848,13 @@
         <v>266699</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M26" s="7">
         <v>424</v>
@@ -5893,13 +5863,13 @@
         <v>473041</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>428</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5884,13 @@
         <v>755538</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>704</v>
@@ -5929,13 +5899,13 @@
         <v>776113</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>1391</v>
@@ -5944,18 +5914,18 @@
         <v>1531651</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5967,13 +5937,13 @@
         <v>15182</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -5982,13 +5952,13 @@
         <v>10911</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>106</v>
+        <v>316</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>235</v>
+        <v>434</v>
       </c>
       <c r="M28" s="7">
         <v>26</v>
@@ -5997,13 +5967,13 @@
         <v>26093</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>432</v>
+        <v>61</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,13 +5988,13 @@
         <v>36693</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H29" s="7">
         <v>26</v>
@@ -6033,13 +6003,13 @@
         <v>27341</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>438</v>
+        <v>108</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="M29" s="7">
         <v>63</v>
@@ -6048,13 +6018,13 @@
         <v>64034</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>22</v>
+        <v>442</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6069,13 +6039,13 @@
         <v>209887</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H30" s="7">
         <v>130</v>
@@ -6084,13 +6054,13 @@
         <v>135330</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M30" s="7">
         <v>335</v>
@@ -6099,19 +6069,19 @@
         <v>345217</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="7">
         <v>288</v>
@@ -6120,13 +6090,13 @@
         <v>299090</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H31" s="7">
         <v>282</v>
@@ -6135,13 +6105,13 @@
         <v>291432</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>453</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M31" s="7">
         <v>570</v>
@@ -6150,19 +6120,19 @@
         <v>590522</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="7">
         <v>365</v>
@@ -6171,13 +6141,13 @@
         <v>386886</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H32" s="7">
         <v>550</v>
@@ -6186,13 +6156,13 @@
         <v>581201</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M32" s="7">
         <v>915</v>
@@ -6201,13 +6171,13 @@
         <v>968087</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6192,13 @@
         <v>947739</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
         <v>999</v>
@@ -6237,13 +6207,13 @@
         <v>1046215</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
         <v>1909</v>
@@ -6252,13 +6222,13 @@
         <v>1993954</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,13 +6245,13 @@
         <v>55607</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H34" s="7">
         <v>35</v>
@@ -6290,13 +6260,13 @@
         <v>36451</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>469</v>
+        <v>106</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>472</v>
       </c>
       <c r="M34" s="7">
         <v>90</v>
@@ -6305,13 +6275,13 @@
         <v>92058</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,13 +6296,13 @@
         <v>148724</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H35" s="7">
         <v>97</v>
@@ -6344,10 +6314,10 @@
         <v>19</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>476</v>
+        <v>154</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M35" s="7">
         <v>240</v>
@@ -6356,13 +6326,13 @@
         <v>252680</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>479</v>
+        <v>279</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>480</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,13 +6347,13 @@
         <v>781950</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>481</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="H36" s="7">
         <v>545</v>
@@ -6398,7 +6368,7 @@
         <v>483</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>484</v>
+        <v>333</v>
       </c>
       <c r="M36" s="7">
         <v>1287</v>
@@ -6407,19 +6377,19 @@
         <v>1366982</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="7">
         <v>1110</v>
@@ -6428,13 +6398,13 @@
         <v>1204983</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="H37" s="7">
         <v>1101</v>
@@ -6443,13 +6413,13 @@
         <v>1185243</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M37" s="7">
         <v>2211</v>
@@ -6458,19 +6428,19 @@
         <v>2390226</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="7">
         <v>1152</v>
@@ -6479,13 +6449,13 @@
         <v>1228309</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="H38" s="7">
         <v>1513</v>
@@ -6494,13 +6464,13 @@
         <v>1637794</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>501</v>
+        <v>180</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M38" s="7">
         <v>2665</v>
@@ -6509,13 +6479,13 @@
         <v>2866102</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6500,13 @@
         <v>3419572</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H39" s="7">
         <v>3291</v>
@@ -6545,13 +6515,13 @@
         <v>3548477</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M39" s="7">
         <v>6493</v>
@@ -6560,18 +6530,18 @@
         <v>6968048</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -6592,7 +6562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1F5CDB-70DE-4726-9AA2-3D0C5546A284}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0BB3EA-BAD4-4E29-8C38-D49710638B62}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6609,7 +6579,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6716,13 +6686,13 @@
         <v>2167</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>507</v>
+        <v>434</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6731,13 +6701,13 @@
         <v>1778</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6749,10 +6719,10 @@
         <v>102</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6767,13 +6737,13 @@
         <v>6232</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6788,7 +6758,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>516</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -6797,13 +6767,13 @@
         <v>6232</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>63</v>
+        <v>512</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>517</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6818,13 +6788,13 @@
         <v>26973</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="H6" s="7">
         <v>30</v>
@@ -6833,13 +6803,13 @@
         <v>30166</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="M6" s="7">
         <v>57</v>
@@ -6848,19 +6818,19 @@
         <v>57139</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>525</v>
+        <v>227</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7">
         <v>29</v>
@@ -6869,13 +6839,13 @@
         <v>30084</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>528</v>
+        <v>81</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -6884,13 +6854,13 @@
         <v>28147</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>531</v>
+        <v>371</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="M7" s="7">
         <v>59</v>
@@ -6899,19 +6869,19 @@
         <v>58231</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
         <v>48</v>
@@ -6920,13 +6890,13 @@
         <v>50058</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="H8" s="7">
         <v>53</v>
@@ -6935,13 +6905,13 @@
         <v>53269</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="M8" s="7">
         <v>101</v>
@@ -6950,13 +6920,13 @@
         <v>103328</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,13 +6941,13 @@
         <v>115514</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>115</v>
@@ -6986,13 +6956,13 @@
         <v>113360</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>227</v>
@@ -7001,18 +6971,18 @@
         <v>228874</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7024,13 +6994,13 @@
         <v>4675</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -7039,13 +7009,13 @@
         <v>7928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>547</v>
+        <v>239</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -7054,13 +7024,13 @@
         <v>12604</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>552</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,13 +7045,13 @@
         <v>19545</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>554</v>
+        <v>236</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -7090,13 +7060,13 @@
         <v>17611</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -7105,13 +7075,13 @@
         <v>37156</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>321</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>559</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7126,13 +7096,13 @@
         <v>114241</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="H12" s="7">
         <v>103</v>
@@ -7141,13 +7111,13 @@
         <v>105491</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="M12" s="7">
         <v>211</v>
@@ -7156,19 +7126,19 @@
         <v>219732</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="7">
         <v>242</v>
@@ -7177,13 +7147,13 @@
         <v>248480</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="H13" s="7">
         <v>215</v>
@@ -7192,13 +7162,13 @@
         <v>215910</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>573</v>
+        <v>297</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="M13" s="7">
         <v>457</v>
@@ -7207,19 +7177,19 @@
         <v>464390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7">
         <v>162</v>
@@ -7228,13 +7198,13 @@
         <v>168271</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="H14" s="7">
         <v>206</v>
@@ -7243,13 +7213,13 @@
         <v>209644</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>130</v>
+        <v>569</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="M14" s="7">
         <v>368</v>
@@ -7258,13 +7228,13 @@
         <v>377915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7279,13 +7249,13 @@
         <v>555213</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>548</v>
@@ -7294,13 +7264,13 @@
         <v>556584</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>1084</v>
@@ -7309,13 +7279,13 @@
         <v>1111797</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7332,13 +7302,13 @@
         <v>10232</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>357</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -7347,13 +7317,13 @@
         <v>16920</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>576</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -7362,13 +7332,13 @@
         <v>27152</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>352</v>
+        <v>23</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7383,13 +7353,13 @@
         <v>44487</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>580</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -7398,13 +7368,13 @@
         <v>26913</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="M17" s="7">
         <v>67</v>
@@ -7413,13 +7383,13 @@
         <v>71400</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>279</v>
+        <v>586</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>596</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7434,13 +7404,13 @@
         <v>232413</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>566</v>
+        <v>330</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>298</v>
+        <v>588</v>
       </c>
       <c r="H18" s="7">
         <v>189</v>
@@ -7449,13 +7419,13 @@
         <v>198896</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="M18" s="7">
         <v>406</v>
@@ -7464,19 +7434,19 @@
         <v>431309</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>602</v>
+        <v>452</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7">
         <v>459</v>
@@ -7485,13 +7455,13 @@
         <v>489608</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="H19" s="7">
         <v>462</v>
@@ -7500,13 +7470,13 @@
         <v>492445</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="M19" s="7">
         <v>921</v>
@@ -7515,19 +7485,19 @@
         <v>982054</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7">
         <v>223</v>
@@ -7536,13 +7506,13 @@
         <v>244605</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="H20" s="7">
         <v>283</v>
@@ -7551,13 +7521,13 @@
         <v>306646</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>617</v>
+        <v>515</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="M20" s="7">
         <v>506</v>
@@ -7566,13 +7536,13 @@
         <v>551251</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,13 +7557,13 @@
         <v>1021345</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>976</v>
@@ -7602,13 +7572,13 @@
         <v>1041820</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>1926</v>
@@ -7617,13 +7587,13 @@
         <v>2063165</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7640,13 +7610,13 @@
         <v>8609</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>622</v>
+        <v>57</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>611</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>623</v>
+        <v>236</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -7655,13 +7625,13 @@
         <v>8234</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>624</v>
+        <v>474</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>314</v>
+        <v>56</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -7670,13 +7640,13 @@
         <v>16842</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7691,13 +7661,13 @@
         <v>39903</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>400</v>
+        <v>617</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -7706,13 +7676,13 @@
         <v>22142</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>236</v>
+        <v>619</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>102</v>
+        <v>320</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="M23" s="7">
         <v>54</v>
@@ -7721,13 +7691,13 @@
         <v>62045</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,13 +7712,13 @@
         <v>200650</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>76</v>
+        <v>624</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="H24" s="7">
         <v>173</v>
@@ -7757,13 +7727,13 @@
         <v>179700</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="M24" s="7">
         <v>354</v>
@@ -7772,19 +7742,19 @@
         <v>380350</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="7">
         <v>297</v>
@@ -7793,13 +7763,13 @@
         <v>322285</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="H25" s="7">
         <v>296</v>
@@ -7808,13 +7778,13 @@
         <v>316338</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>645</v>
+        <v>258</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="M25" s="7">
         <v>593</v>
@@ -7823,19 +7793,19 @@
         <v>638623</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>649</v>
+        <v>339</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7">
         <v>168</v>
@@ -7844,13 +7814,13 @@
         <v>177931</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="H26" s="7">
         <v>233</v>
@@ -7859,13 +7829,13 @@
         <v>252126</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="M26" s="7">
         <v>401</v>
@@ -7874,13 +7844,13 @@
         <v>430057</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7895,13 +7865,13 @@
         <v>749379</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>730</v>
@@ -7910,13 +7880,13 @@
         <v>778539</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>1418</v>
@@ -7925,18 +7895,18 @@
         <v>1527918</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7948,13 +7918,13 @@
         <v>12718</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>62</v>
+        <v>649</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>660</v>
+        <v>281</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>394</v>
+        <v>650</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -7966,10 +7936,10 @@
         <v>15</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>662</v>
+        <v>469</v>
       </c>
       <c r="M28" s="7">
         <v>21</v>
@@ -7978,13 +7948,13 @@
         <v>21256</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>663</v>
+        <v>152</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>662</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,13 +7969,13 @@
         <v>29812</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>664</v>
+        <v>279</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -8014,13 +7984,13 @@
         <v>24438</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>559</v>
+        <v>653</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>667</v>
+        <v>58</v>
       </c>
       <c r="M29" s="7">
         <v>53</v>
@@ -8029,13 +7999,13 @@
         <v>54251</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>669</v>
+        <v>240</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8050,13 +8020,13 @@
         <v>182903</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="H30" s="7">
         <v>143</v>
@@ -8065,13 +8035,13 @@
         <v>148236</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="M30" s="7">
         <v>324</v>
@@ -8080,19 +8050,19 @@
         <v>331139</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="7">
         <v>420</v>
@@ -8101,13 +8071,13 @@
         <v>415813</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="H31" s="7">
         <v>397</v>
@@ -8119,10 +8089,10 @@
         <v>132</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="M31" s="7">
         <v>817</v>
@@ -8131,19 +8101,19 @@
         <v>845555</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>575</v>
+        <v>671</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="7">
         <v>286</v>
@@ -8152,13 +8122,13 @@
         <v>294472</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="H32" s="7">
         <v>382</v>
@@ -8167,13 +8137,13 @@
         <v>426527</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="M32" s="7">
         <v>668</v>
@@ -8182,13 +8152,13 @@
         <v>721000</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>179</v>
+        <v>682</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8203,13 +8173,13 @@
         <v>935720</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
         <v>953</v>
@@ -8218,13 +8188,13 @@
         <v>1037481</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
         <v>1883</v>
@@ -8233,13 +8203,13 @@
         <v>1973201</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8256,13 +8226,13 @@
         <v>38401</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>697</v>
+        <v>654</v>
       </c>
       <c r="H34" s="7">
         <v>41</v>
@@ -8274,10 +8244,10 @@
         <v>195</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="M34" s="7">
         <v>79</v>
@@ -8286,13 +8256,13 @@
         <v>81799</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>23</v>
+        <v>577</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8307,13 +8277,13 @@
         <v>139981</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>701</v>
+        <v>443</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>702</v>
+        <v>58</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="H35" s="7">
         <v>86</v>
@@ -8322,13 +8292,13 @@
         <v>91104</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>514</v>
+        <v>689</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>664</v>
+        <v>690</v>
       </c>
       <c r="M35" s="7">
         <v>216</v>
@@ -8340,10 +8310,10 @@
         <v>148</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>704</v>
+        <v>19</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,13 +8328,13 @@
         <v>757181</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="H36" s="7">
         <v>638</v>
@@ -8373,13 +8343,13 @@
         <v>662488</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>408</v>
+        <v>695</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>371</v>
+        <v>697</v>
       </c>
       <c r="M36" s="7">
         <v>1352</v>
@@ -8388,19 +8358,19 @@
         <v>1419669</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>487</v>
+        <v>698</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="7">
         <v>1447</v>
@@ -8409,13 +8379,13 @@
         <v>1506272</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>647</v>
+        <v>701</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>575</v>
+        <v>702</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="H37" s="7">
         <v>1400</v>
@@ -8424,13 +8394,13 @@
         <v>1482581</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="M37" s="7">
         <v>2847</v>
@@ -8439,19 +8409,19 @@
         <v>2988853</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="7">
         <v>887</v>
@@ -8460,13 +8430,13 @@
         <v>935337</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>720</v>
+        <v>269</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>721</v>
+        <v>270</v>
       </c>
       <c r="H38" s="7">
         <v>1157</v>
@@ -8475,13 +8445,13 @@
         <v>1248213</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>419</v>
+        <v>713</v>
       </c>
       <c r="M38" s="7">
         <v>2044</v>
@@ -8490,13 +8460,13 @@
         <v>2183550</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8511,13 +8481,13 @@
         <v>3377172</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H39" s="7">
         <v>3322</v>
@@ -8526,13 +8496,13 @@
         <v>3527784</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M39" s="7">
         <v>6538</v>
@@ -8541,18 +8511,18 @@
         <v>6904956</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B08-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8470893F-9EFE-4952-9608-8FF4C2FCB568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDE8D22C-D749-4488-9E18-90A7F62F3F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BD393D18-183D-4734-840A-9D1A7AA34C73}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B9672CB7-022F-4FE7-86C8-7932233A08CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="715">
   <si>
     <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -94,7 +94,7 @@
     <t>1,95%</t>
   </si>
   <si>
-    <t>5,96%</t>
+    <t>6,69%</t>
   </si>
   <si>
     <t>2,93%</t>
@@ -103,2092 +103,2086 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>6,74%</t>
+    <t>7,19%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
+    <t>3,87%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,35%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2015 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
+    <t>3,83%</t>
   </si>
   <si>
     <t>22,42%</t>
   </si>
   <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
+    <t>21,55%</t>
   </si>
   <si>
     <t>44,6%</t>
   </si>
   <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
   </si>
   <si>
     <t>42,03%</t>
   </si>
   <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
   </si>
   <si>
     <t>43,29%</t>
   </si>
   <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
     <t>27,7%</t>
   </si>
   <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
     <t>35,38%</t>
   </si>
   <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
+    <t>33,71%</t>
   </si>
   <si>
     <t>31,62%</t>
   </si>
   <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
   </si>
 </sst>
 </file>
@@ -2600,7 +2594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A32A1F-7806-4032-99E7-C73EAD94060D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B401B58-D996-474F-B4BC-EB7D2160C70E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2859,16 +2853,16 @@
         <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>49</v>
@@ -2877,13 +2871,13 @@
         <v>53871</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>52</v>
@@ -2892,13 +2886,13 @@
         <v>44749</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" s="7">
         <v>101</v>
@@ -2907,19 +2901,19 @@
         <v>98621</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>33</v>
@@ -2928,13 +2922,13 @@
         <v>36630</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -2943,13 +2937,13 @@
         <v>46654</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>84</v>
@@ -2958,13 +2952,13 @@
         <v>83284</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,13 +2973,13 @@
         <v>115358</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7">
         <v>128</v>
@@ -2994,13 +2988,13 @@
         <v>112755</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>233</v>
@@ -3009,18 +3003,18 @@
         <v>228113</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3032,13 +3026,13 @@
         <v>11754</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3047,13 +3041,13 @@
         <v>2807</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3062,13 +3056,13 @@
         <v>14561</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3077,13 @@
         <v>21908</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -3098,13 +3092,13 @@
         <v>20848</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>45</v>
@@ -3113,13 +3107,13 @@
         <v>42756</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3128,13 @@
         <v>133159</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>109</v>
@@ -3149,13 +3143,13 @@
         <v>107388</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>240</v>
@@ -3164,19 +3158,19 @@
         <v>240546</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
         <v>295</v>
@@ -3185,13 +3179,13 @@
         <v>296141</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>282</v>
@@ -3200,13 +3194,13 @@
         <v>286015</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>577</v>
@@ -3215,19 +3209,19 @@
         <v>582156</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
         <v>116</v>
@@ -3236,13 +3230,13 @@
         <v>115692</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>152</v>
@@ -3251,13 +3245,13 @@
         <v>158539</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>268</v>
@@ -3266,13 +3260,13 @@
         <v>274231</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3281,13 @@
         <v>578654</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H15" s="7">
         <v>568</v>
@@ -3302,13 +3296,13 @@
         <v>575596</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
         <v>1146</v>
@@ -3317,18 +3311,18 @@
         <v>1154250</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3340,13 +3334,13 @@
         <v>16583</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -3355,10 +3349,10 @@
         <v>16219</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>107</v>
@@ -3409,10 +3403,10 @@
         <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>103</v>
@@ -3421,13 +3415,13 @@
         <v>112618</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3436,13 @@
         <v>274507</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H18" s="7">
         <v>235</v>
@@ -3457,13 +3451,13 @@
         <v>246176</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>492</v>
@@ -3472,19 +3466,19 @@
         <v>520683</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
         <v>365</v>
@@ -3493,13 +3487,13 @@
         <v>390969</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>379</v>
@@ -3508,13 +3502,13 @@
         <v>400687</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>744</v>
@@ -3523,19 +3517,19 @@
         <v>791656</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
         <v>193</v>
@@ -3544,13 +3538,13 @@
         <v>206918</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>241</v>
@@ -3559,13 +3553,13 @@
         <v>264456</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>434</v>
@@ -3574,13 +3568,13 @@
         <v>471374</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3589,13 @@
         <v>961800</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
         <v>907</v>
@@ -3610,13 +3604,13 @@
         <v>967333</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
         <v>1803</v>
@@ -3625,18 +3619,18 @@
         <v>1929133</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3648,13 +3642,13 @@
         <v>22726</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -3663,13 +3657,13 @@
         <v>9776</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -3678,13 +3672,13 @@
         <v>32502</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3693,13 @@
         <v>53436</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -3714,13 +3708,13 @@
         <v>36590</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>89</v>
@@ -3729,13 +3723,13 @@
         <v>90027</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3744,13 @@
         <v>209267</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>159</v>
@@ -3765,13 +3759,13 @@
         <v>155032</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>356</v>
@@ -3780,19 +3774,19 @@
         <v>364300</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
         <v>237</v>
@@ -3801,13 +3795,13 @@
         <v>251064</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>278</v>
@@ -3816,13 +3810,13 @@
         <v>278017</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>515</v>
@@ -3831,19 +3825,19 @@
         <v>529081</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>134</v>
@@ -3852,13 +3846,13 @@
         <v>142015</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>212</v>
@@ -3867,13 +3861,13 @@
         <v>204426</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>346</v>
@@ -3882,13 +3876,13 @@
         <v>346441</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,13 +3897,13 @@
         <v>678509</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H27" s="7">
         <v>696</v>
@@ -3918,13 +3912,13 @@
         <v>683841</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
         <v>1337</v>
@@ -3933,18 +3927,18 @@
         <v>1362350</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3956,13 +3950,13 @@
         <v>21813</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -3971,13 +3965,13 @@
         <v>12775</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="M28" s="7">
         <v>38</v>
@@ -3986,13 +3980,13 @@
         <v>34588</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +4001,13 @@
         <v>77319</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>43</v>
@@ -4022,13 +4016,13 @@
         <v>46016</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>124</v>
@@ -4037,13 +4031,13 @@
         <v>123335</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4052,13 @@
         <v>264426</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>256</v>
@@ -4073,13 +4067,13 @@
         <v>261793</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>535</v>
@@ -4088,19 +4082,19 @@
         <v>526219</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
         <v>413</v>
@@ -4109,13 +4103,13 @@
         <v>392383</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>433</v>
@@ -4124,13 +4118,13 @@
         <v>450741</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>846</v>
@@ -4139,19 +4133,19 @@
         <v>843124</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
         <v>195</v>
@@ -4160,13 +4154,13 @@
         <v>185446</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>252</v>
@@ -4175,13 +4169,13 @@
         <v>267287</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>447</v>
@@ -4190,13 +4184,13 @@
         <v>452734</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4205,13 @@
         <v>941388</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H33" s="7">
         <v>997</v>
@@ -4226,13 +4220,13 @@
         <v>1038612</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M33" s="7">
         <v>1990</v>
@@ -4241,13 +4235,13 @@
         <v>1980000</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4258,13 @@
         <v>72877</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>41</v>
@@ -4279,13 +4273,13 @@
         <v>41576</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>115</v>
@@ -4294,13 +4288,13 @@
         <v>114452</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4309,13 @@
         <v>227737</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>143</v>
@@ -4330,13 +4324,13 @@
         <v>146558</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>71</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>367</v>
@@ -4345,13 +4339,13 @@
         <v>374295</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,16 +4357,16 @@
         <v>885</v>
       </c>
       <c r="D36" s="7">
-        <v>903965</v>
+        <v>903964</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H36" s="7">
         <v>780</v>
@@ -4381,13 +4375,13 @@
         <v>788433</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M36" s="7">
         <v>1665</v>
@@ -4396,34 +4390,34 @@
         <v>1692398</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
         <v>1359</v>
       </c>
       <c r="D37" s="7">
-        <v>1384430</v>
+        <v>1384429</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>1424</v>
@@ -4432,13 +4426,13 @@
         <v>1460208</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>2783</v>
@@ -4447,19 +4441,19 @@
         <v>2844638</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="7">
         <v>671</v>
@@ -4468,13 +4462,13 @@
         <v>686702</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="H38" s="7">
         <v>908</v>
@@ -4483,13 +4477,13 @@
         <v>941363</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M38" s="7">
         <v>1579</v>
@@ -4498,13 +4492,13 @@
         <v>1628064</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,16 +4510,16 @@
         <v>3213</v>
       </c>
       <c r="D39" s="7">
-        <v>3275710</v>
+        <v>3275709</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H39" s="7">
         <v>3296</v>
@@ -4534,13 +4528,13 @@
         <v>3378138</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M39" s="7">
         <v>6509</v>
@@ -4549,18 +4543,18 @@
         <v>6653847</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4581,7 +4575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568CBDB2-A383-4386-914D-80B871837496}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3269B4-5AAF-42B4-BE24-BD547FE641C0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4598,7 +4592,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4705,13 +4699,13 @@
         <v>868</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4720,13 +4714,13 @@
         <v>1213</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>112</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4735,13 +4729,13 @@
         <v>2080</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4750,13 @@
         <v>3153</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4777,7 +4771,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -4786,13 +4780,13 @@
         <v>5183</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4801,13 @@
         <v>24610</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -4822,13 +4816,13 @@
         <v>10620</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M6" s="7">
         <v>36</v>
@@ -4837,19 +4831,19 @@
         <v>35230</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>36</v>
@@ -4858,13 +4852,13 @@
         <v>35410</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -4873,13 +4867,13 @@
         <v>28275</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -4888,19 +4882,19 @@
         <v>63685</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>55</v>
@@ -4909,13 +4903,13 @@
         <v>51723</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H8" s="7">
         <v>60</v>
@@ -4924,13 +4918,13 @@
         <v>69768</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M8" s="7">
         <v>115</v>
@@ -4939,13 +4933,13 @@
         <v>121491</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,13 +4954,13 @@
         <v>115765</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7">
         <v>99</v>
@@ -4975,13 +4969,13 @@
         <v>111905</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>221</v>
@@ -4990,18 +4984,18 @@
         <v>227670</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5013,13 +5007,13 @@
         <v>5858</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5028,13 +5022,13 @@
         <v>6108</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>312</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>317</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -5043,13 +5037,13 @@
         <v>11966</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5058,13 @@
         <v>24347</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -5079,13 +5073,13 @@
         <v>14812</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>14</v>
+        <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
         <v>38</v>
@@ -5094,13 +5088,13 @@
         <v>39159</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,13 +5109,13 @@
         <v>112378</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>330</v>
+        <v>47</v>
       </c>
       <c r="H12" s="7">
         <v>80</v>
@@ -5130,13 +5124,13 @@
         <v>86239</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M12" s="7">
         <v>185</v>
@@ -5145,19 +5139,19 @@
         <v>198617</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
         <v>193</v>
@@ -5166,13 +5160,13 @@
         <v>206203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>338</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -5181,13 +5175,13 @@
         <v>219410</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>336</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
         <v>400</v>
@@ -5196,19 +5190,19 @@
         <v>425613</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
         <v>224</v>
@@ -5217,13 +5211,13 @@
         <v>237847</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>346</v>
+        <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H14" s="7">
         <v>243</v>
@@ -5232,13 +5226,13 @@
         <v>258576</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>349</v>
+        <v>39</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M14" s="7">
         <v>467</v>
@@ -5247,13 +5241,13 @@
         <v>496423</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5262,13 @@
         <v>586633</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H15" s="7">
         <v>551</v>
@@ -5283,13 +5277,13 @@
         <v>585145</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
         <v>1102</v>
@@ -5298,18 +5292,18 @@
         <v>1171778</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5321,13 +5315,13 @@
         <v>15400</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5336,13 +5330,13 @@
         <v>8279</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>350</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -5351,13 +5345,13 @@
         <v>23680</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>20</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5366,13 @@
         <v>52678</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -5387,13 +5381,13 @@
         <v>41174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -5402,13 +5396,13 @@
         <v>93852</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>367</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5417,13 @@
         <v>228971</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>145</v>
+        <v>364</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>369</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="H18" s="7">
         <v>168</v>
@@ -5438,13 +5432,13 @@
         <v>184024</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M18" s="7">
         <v>383</v>
@@ -5453,19 +5447,19 @@
         <v>412995</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
         <v>334</v>
@@ -5474,13 +5468,13 @@
         <v>371337</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H19" s="7">
         <v>303</v>
@@ -5489,13 +5483,13 @@
         <v>334072</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M19" s="7">
         <v>637</v>
@@ -5504,19 +5498,19 @@
         <v>705409</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
         <v>321</v>
@@ -5525,13 +5519,13 @@
         <v>345510</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H20" s="7">
         <v>423</v>
@@ -5540,13 +5534,13 @@
         <v>461550</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M20" s="7">
         <v>744</v>
@@ -5555,13 +5549,13 @@
         <v>807060</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5570,13 @@
         <v>1013896</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
         <v>938</v>
@@ -5591,13 +5585,13 @@
         <v>1029099</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
         <v>1870</v>
@@ -5606,18 +5600,18 @@
         <v>2042995</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5632,10 +5626,10 @@
         <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>395</v>
+        <v>72</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -5644,13 +5638,13 @@
         <v>9940</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>69</v>
+        <v>392</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -5659,13 +5653,13 @@
         <v>28238</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,13 +5674,13 @@
         <v>31852</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>403</v>
+        <v>239</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -5695,13 +5689,13 @@
         <v>18600</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>151</v>
+        <v>399</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M23" s="7">
         <v>48</v>
@@ -5710,13 +5704,13 @@
         <v>50452</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,13 +5725,13 @@
         <v>206104</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H24" s="7">
         <v>157</v>
@@ -5746,13 +5740,13 @@
         <v>168820</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>328</v>
+        <v>408</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M24" s="7">
         <v>348</v>
@@ -5761,19 +5755,19 @@
         <v>374923</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
         <v>259</v>
@@ -5782,13 +5776,13 @@
         <v>292942</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>136</v>
+        <v>413</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H25" s="7">
         <v>283</v>
@@ -5797,13 +5791,13 @@
         <v>312054</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>421</v>
+        <v>262</v>
       </c>
       <c r="M25" s="7">
         <v>542</v>
@@ -5812,19 +5806,19 @@
         <v>604996</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>257</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>187</v>
@@ -5833,13 +5827,13 @@
         <v>206342</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H26" s="7">
         <v>237</v>
@@ -5848,13 +5842,13 @@
         <v>266699</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M26" s="7">
         <v>424</v>
@@ -5863,13 +5857,13 @@
         <v>473041</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,13 +5878,13 @@
         <v>755538</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H27" s="7">
         <v>704</v>
@@ -5899,13 +5893,13 @@
         <v>776113</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
         <v>1391</v>
@@ -5914,18 +5908,18 @@
         <v>1531651</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5937,13 +5931,13 @@
         <v>15182</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>355</v>
+        <v>429</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>432</v>
+        <v>349</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -5952,13 +5946,13 @@
         <v>10911</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="M28" s="7">
         <v>26</v>
@@ -5967,13 +5961,13 @@
         <v>26093</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>61</v>
+        <v>431</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>436</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,13 +5982,13 @@
         <v>36693</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H29" s="7">
         <v>26</v>
@@ -6003,13 +5997,13 @@
         <v>27341</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M29" s="7">
         <v>63</v>
@@ -6018,13 +6012,13 @@
         <v>64034</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>443</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,13 +6033,13 @@
         <v>209887</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>445</v>
+        <v>26</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H30" s="7">
         <v>130</v>
@@ -6054,13 +6048,13 @@
         <v>135330</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M30" s="7">
         <v>335</v>
@@ -6069,19 +6063,19 @@
         <v>345217</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
         <v>288</v>
@@ -6090,13 +6084,13 @@
         <v>299090</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H31" s="7">
         <v>282</v>
@@ -6105,13 +6099,13 @@
         <v>291432</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>451</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>127</v>
+        <v>452</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M31" s="7">
         <v>570</v>
@@ -6120,19 +6114,19 @@
         <v>590522</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
         <v>365</v>
@@ -6141,13 +6135,13 @@
         <v>386886</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>461</v>
+        <v>335</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H32" s="7">
         <v>550</v>
@@ -6156,13 +6150,13 @@
         <v>581201</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="M32" s="7">
         <v>915</v>
@@ -6171,13 +6165,13 @@
         <v>968087</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,13 +6186,13 @@
         <v>947739</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H33" s="7">
         <v>999</v>
@@ -6207,13 +6201,13 @@
         <v>1046215</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M33" s="7">
         <v>1909</v>
@@ -6222,13 +6216,13 @@
         <v>1993954</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6245,13 +6239,13 @@
         <v>55607</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>62</v>
+        <v>465</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H34" s="7">
         <v>35</v>
@@ -6260,13 +6254,13 @@
         <v>36451</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>471</v>
+        <v>194</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M34" s="7">
         <v>90</v>
@@ -6275,13 +6269,13 @@
         <v>92058</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>474</v>
+        <v>275</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6296,13 +6290,13 @@
         <v>148724</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H35" s="7">
         <v>97</v>
@@ -6314,10 +6308,10 @@
         <v>19</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>154</v>
+        <v>473</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="M35" s="7">
         <v>240</v>
@@ -6326,13 +6320,13 @@
         <v>252680</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>279</v>
+        <v>438</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>321</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,13 +6341,13 @@
         <v>781950</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>255</v>
+        <v>478</v>
       </c>
       <c r="H36" s="7">
         <v>545</v>
@@ -6362,13 +6356,13 @@
         <v>585032</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>333</v>
+        <v>481</v>
       </c>
       <c r="M36" s="7">
         <v>1287</v>
@@ -6377,19 +6371,19 @@
         <v>1366982</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
         <v>1110</v>
@@ -6398,13 +6392,13 @@
         <v>1204983</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="H37" s="7">
         <v>1101</v>
@@ -6413,13 +6407,13 @@
         <v>1185243</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>378</v>
+        <v>488</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="M37" s="7">
         <v>2211</v>
@@ -6428,19 +6422,19 @@
         <v>2390226</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="7">
         <v>1152</v>
@@ -6449,13 +6443,13 @@
         <v>1228309</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="H38" s="7">
         <v>1513</v>
@@ -6464,10 +6458,10 @@
         <v>1637794</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>499</v>
@@ -6500,13 +6494,13 @@
         <v>3419572</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H39" s="7">
         <v>3291</v>
@@ -6515,13 +6509,13 @@
         <v>3548477</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M39" s="7">
         <v>6493</v>
@@ -6530,18 +6524,18 @@
         <v>6968048</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -6562,7 +6556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0BB3EA-BAD4-4E29-8C38-D49710638B62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FF6BAE-4D12-436A-897B-0A8BED6A6556}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6686,13 +6680,13 @@
         <v>2167</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>434</v>
+        <v>504</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6701,13 +6695,13 @@
         <v>1778</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6716,13 +6710,13 @@
         <v>3944</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6737,13 +6731,13 @@
         <v>6232</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6758,7 +6752,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>469</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -6767,13 +6761,13 @@
         <v>6232</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,13 +6782,13 @@
         <v>26973</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="H6" s="7">
         <v>30</v>
@@ -6803,13 +6797,13 @@
         <v>30166</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>515</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M6" s="7">
         <v>57</v>
@@ -6818,19 +6812,19 @@
         <v>57139</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>227</v>
+        <v>521</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>29</v>
@@ -6839,13 +6833,13 @@
         <v>30084</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>81</v>
+        <v>481</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -6854,13 +6848,13 @@
         <v>28147</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>371</v>
+        <v>526</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="M7" s="7">
         <v>59</v>
@@ -6869,19 +6863,19 @@
         <v>58231</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>48</v>
@@ -6890,13 +6884,13 @@
         <v>50058</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="H8" s="7">
         <v>53</v>
@@ -6905,13 +6899,13 @@
         <v>53269</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="M8" s="7">
         <v>101</v>
@@ -6920,13 +6914,13 @@
         <v>103328</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,13 +6935,13 @@
         <v>115514</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7">
         <v>115</v>
@@ -6956,13 +6950,13 @@
         <v>113360</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>227</v>
@@ -6971,18 +6965,18 @@
         <v>228874</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6994,13 +6988,13 @@
         <v>4675</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>536</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -7009,13 +7003,13 @@
         <v>7928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>239</v>
+        <v>541</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -7024,10 +7018,10 @@
         <v>12604</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>17</v>
@@ -7045,13 +7039,13 @@
         <v>19545</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>547</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -7060,13 +7054,13 @@
         <v>17611</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>546</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>547</v>
+        <v>149</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -7075,13 +7069,13 @@
         <v>37156</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>550</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7096,13 +7090,13 @@
         <v>114241</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="H12" s="7">
         <v>103</v>
@@ -7111,13 +7105,13 @@
         <v>105491</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="M12" s="7">
         <v>211</v>
@@ -7126,19 +7120,19 @@
         <v>219732</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
         <v>242</v>
@@ -7147,13 +7141,13 @@
         <v>248480</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="H13" s="7">
         <v>215</v>
@@ -7162,13 +7156,13 @@
         <v>215910</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>297</v>
+        <v>564</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="M13" s="7">
         <v>457</v>
@@ -7177,19 +7171,19 @@
         <v>464390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
         <v>162</v>
@@ -7198,13 +7192,13 @@
         <v>168271</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="H14" s="7">
         <v>206</v>
@@ -7213,13 +7207,13 @@
         <v>209644</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="M14" s="7">
         <v>368</v>
@@ -7228,13 +7222,13 @@
         <v>377915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,13 +7243,13 @@
         <v>555213</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H15" s="7">
         <v>548</v>
@@ -7264,13 +7258,13 @@
         <v>556584</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
         <v>1084</v>
@@ -7279,18 +7273,18 @@
         <v>1111797</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7302,13 +7296,13 @@
         <v>10232</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>575</v>
+        <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>579</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -7317,13 +7311,13 @@
         <v>16920</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>576</v>
+        <v>352</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>578</v>
+        <v>436</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -7332,13 +7326,13 @@
         <v>27152</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>23</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7353,13 +7347,13 @@
         <v>44487</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -7368,13 +7362,13 @@
         <v>26913</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>583</v>
+        <v>195</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M17" s="7">
         <v>67</v>
@@ -7383,13 +7377,13 @@
         <v>71400</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,13 +7398,13 @@
         <v>232413</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>330</v>
+        <v>590</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>587</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>588</v>
+        <v>270</v>
       </c>
       <c r="H18" s="7">
         <v>189</v>
@@ -7419,13 +7413,13 @@
         <v>198896</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="M18" s="7">
         <v>406</v>
@@ -7434,19 +7428,19 @@
         <v>431309</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>452</v>
+        <v>595</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
         <v>459</v>
@@ -7455,13 +7449,13 @@
         <v>489608</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="H19" s="7">
         <v>462</v>
@@ -7470,13 +7464,13 @@
         <v>492445</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="M19" s="7">
         <v>921</v>
@@ -7485,19 +7479,19 @@
         <v>982054</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>601</v>
+        <v>347</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
         <v>223</v>
@@ -7506,13 +7500,13 @@
         <v>244605</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H20" s="7">
         <v>283</v>
@@ -7521,13 +7515,13 @@
         <v>306646</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>515</v>
+        <v>609</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="M20" s="7">
         <v>506</v>
@@ -7536,13 +7530,13 @@
         <v>551251</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>608</v>
+        <v>412</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>610</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7557,13 +7551,13 @@
         <v>1021345</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
         <v>976</v>
@@ -7572,13 +7566,13 @@
         <v>1041820</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
         <v>1926</v>
@@ -7587,18 +7581,18 @@
         <v>2063165</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7610,13 +7604,13 @@
         <v>8609</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>611</v>
+        <v>316</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>236</v>
+        <v>612</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -7625,13 +7619,13 @@
         <v>8234</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>474</v>
+        <v>613</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>56</v>
+        <v>237</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -7640,13 +7634,13 @@
         <v>16842</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>615</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7661,10 +7655,10 @@
         <v>39903</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>617</v>
+        <v>357</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>618</v>
@@ -7676,10 +7670,10 @@
         <v>22142</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>620</v>
@@ -7754,7 +7748,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
         <v>297</v>
@@ -7778,10 +7772,10 @@
         <v>316338</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>258</v>
+        <v>636</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>636</v>
+        <v>578</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>637</v>
@@ -7796,16 +7790,16 @@
         <v>638</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>339</v>
+        <v>639</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>639</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>168</v>
@@ -7865,13 +7859,13 @@
         <v>749379</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H27" s="7">
         <v>730</v>
@@ -7880,13 +7874,13 @@
         <v>778539</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
         <v>1418</v>
@@ -7895,18 +7889,18 @@
         <v>1527918</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7921,10 +7915,10 @@
         <v>649</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>281</v>
+        <v>64</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>650</v>
+        <v>196</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -7936,10 +7930,10 @@
         <v>15</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>651</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="M28" s="7">
         <v>21</v>
@@ -7948,13 +7942,13 @@
         <v>21256</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>152</v>
+        <v>652</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>105</v>
+        <v>653</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7969,13 +7963,13 @@
         <v>29812</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>279</v>
+        <v>654</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>652</v>
+        <v>620</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -7984,13 +7978,13 @@
         <v>24438</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>58</v>
+        <v>278</v>
       </c>
       <c r="M29" s="7">
         <v>53</v>
@@ -7999,13 +7993,13 @@
         <v>54251</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>240</v>
+        <v>659</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8020,13 +8014,13 @@
         <v>182903</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>657</v>
+        <v>264</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="H30" s="7">
         <v>143</v>
@@ -8035,13 +8029,13 @@
         <v>148236</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>662</v>
+        <v>516</v>
       </c>
       <c r="M30" s="7">
         <v>324</v>
@@ -8050,19 +8044,19 @@
         <v>331139</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
         <v>420</v>
@@ -8071,13 +8065,13 @@
         <v>415813</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>667</v>
+        <v>174</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H31" s="7">
         <v>397</v>
@@ -8086,13 +8080,13 @@
         <v>429741</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M31" s="7">
         <v>817</v>
@@ -8101,19 +8095,19 @@
         <v>845555</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
         <v>286</v>
@@ -8122,13 +8116,13 @@
         <v>294472</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H32" s="7">
         <v>382</v>
@@ -8137,13 +8131,13 @@
         <v>426527</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M32" s="7">
         <v>668</v>
@@ -8152,13 +8146,13 @@
         <v>721000</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8173,13 +8167,13 @@
         <v>935720</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H33" s="7">
         <v>953</v>
@@ -8188,13 +8182,13 @@
         <v>1037481</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M33" s="7">
         <v>1883</v>
@@ -8203,13 +8197,13 @@
         <v>1973201</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8226,13 +8220,13 @@
         <v>38401</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>684</v>
+        <v>350</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>654</v>
+        <v>685</v>
       </c>
       <c r="H34" s="7">
         <v>41</v>
@@ -8241,13 +8235,13 @@
         <v>43398</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>155</v>
+        <v>469</v>
       </c>
       <c r="M34" s="7">
         <v>79</v>
@@ -8256,13 +8250,13 @@
         <v>81799</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>577</v>
+        <v>513</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8277,13 +8271,13 @@
         <v>139981</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>443</v>
+        <v>689</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>58</v>
+        <v>587</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H35" s="7">
         <v>86</v>
@@ -8292,13 +8286,13 @@
         <v>91104</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="M35" s="7">
         <v>216</v>
@@ -8307,13 +8301,13 @@
         <v>231085</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8328,13 +8322,13 @@
         <v>757181</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>693</v>
+        <v>230</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>694</v>
+        <v>97</v>
       </c>
       <c r="H36" s="7">
         <v>638</v>
@@ -8361,16 +8355,16 @@
         <v>698</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>699</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
         <v>1447</v>
@@ -8379,13 +8373,13 @@
         <v>1506272</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>702</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>703</v>
       </c>
       <c r="H37" s="7">
         <v>1400</v>
@@ -8394,13 +8388,13 @@
         <v>1482581</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>705</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>706</v>
       </c>
       <c r="M37" s="7">
         <v>2847</v>
@@ -8409,19 +8403,19 @@
         <v>2988853</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>708</v>
+        <v>419</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>709</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="7">
         <v>887</v>
@@ -8430,13 +8424,13 @@
         <v>935337</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>269</v>
+        <v>708</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>270</v>
+        <v>709</v>
       </c>
       <c r="H38" s="7">
         <v>1157</v>
@@ -8445,13 +8439,13 @@
         <v>1248213</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>712</v>
-      </c>
       <c r="L38" s="7" t="s">
-        <v>713</v>
+        <v>487</v>
       </c>
       <c r="M38" s="7">
         <v>2044</v>
@@ -8460,13 +8454,13 @@
         <v>2183550</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>714</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8481,13 +8475,13 @@
         <v>3377172</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H39" s="7">
         <v>3322</v>
@@ -8496,13 +8490,13 @@
         <v>3527784</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M39" s="7">
         <v>6538</v>
@@ -8511,18 +8505,18 @@
         <v>6904956</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDE8D22C-D749-4488-9E18-90A7F62F3F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{108BECFD-C0AB-44A1-BE66-4D5296D91083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B9672CB7-022F-4FE7-86C8-7932233A08CA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EC5F1DF9-C9C0-43C6-AB55-D5F2F0021BD5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="727">
   <si>
     <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -94,2092 +94,2128 @@
     <t>1,95%</t>
   </si>
   <si>
-    <t>6,69%</t>
+    <t>6,37%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
   </si>
   <si>
     <t>42,03%</t>
   </si>
   <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
   </si>
   <si>
     <t>43,29%</t>
   </si>
   <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
     <t>27,7%</t>
   </si>
   <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
   </si>
   <si>
     <t>35,38%</t>
   </si>
   <si>
-    <t>33,71%</t>
+    <t>33,7%</t>
   </si>
   <si>
     <t>31,62%</t>
   </si>
   <si>
-    <t>30,33%</t>
+    <t>30,52%</t>
   </si>
   <si>
     <t>32,76%</t>
@@ -2594,7 +2630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B401B58-D996-474F-B4BC-EB7D2160C70E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254B7CE3-209B-435D-8297-43EFBF7C66D1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3080,10 +3116,10 @@
         <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -3092,13 +3128,13 @@
         <v>20848</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>45</v>
@@ -3107,13 +3143,13 @@
         <v>42756</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3164,13 @@
         <v>133159</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>109</v>
@@ -3143,13 +3179,13 @@
         <v>107388</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>240</v>
@@ -3158,13 +3194,13 @@
         <v>240546</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3215,13 @@
         <v>296141</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>282</v>
@@ -3194,13 +3230,13 @@
         <v>286015</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>577</v>
@@ -3209,13 +3245,13 @@
         <v>582156</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3266,13 @@
         <v>115692</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>152</v>
@@ -3245,13 +3281,13 @@
         <v>158539</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>268</v>
@@ -3260,13 +3296,13 @@
         <v>274231</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,7 +3358,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3334,13 +3370,13 @@
         <v>16583</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -3349,10 +3385,10 @@
         <v>16219</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>107</v>
@@ -3403,10 +3439,10 @@
         <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>103</v>
@@ -3415,13 +3451,13 @@
         <v>112618</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3472,13 @@
         <v>274507</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H18" s="7">
         <v>235</v>
@@ -3451,13 +3487,13 @@
         <v>246176</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>492</v>
@@ -3466,13 +3502,13 @@
         <v>520683</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3523,13 @@
         <v>390969</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>379</v>
@@ -3502,13 +3538,13 @@
         <v>400687</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>744</v>
@@ -3517,13 +3553,13 @@
         <v>791656</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3574,13 @@
         <v>206918</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>241</v>
@@ -3553,13 +3589,13 @@
         <v>264456</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>434</v>
@@ -3568,13 +3604,13 @@
         <v>471374</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,7 +3666,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3642,13 +3678,13 @@
         <v>22726</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -3657,13 +3693,13 @@
         <v>9776</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -3672,13 +3708,13 @@
         <v>32502</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3729,13 @@
         <v>53436</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -3708,13 +3744,13 @@
         <v>36590</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>89</v>
@@ -3723,13 +3759,13 @@
         <v>90027</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3780,13 @@
         <v>209267</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H24" s="7">
         <v>159</v>
@@ -3759,13 +3795,13 @@
         <v>155032</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>356</v>
@@ -3774,13 +3810,13 @@
         <v>364300</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,13 +3831,13 @@
         <v>251064</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>278</v>
@@ -3810,13 +3846,13 @@
         <v>278017</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>515</v>
@@ -3825,13 +3861,13 @@
         <v>529081</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,13 +3882,13 @@
         <v>142015</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>212</v>
@@ -3861,13 +3897,13 @@
         <v>204426</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>346</v>
@@ -3876,13 +3912,13 @@
         <v>346441</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,7 +3974,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3950,13 +3986,13 @@
         <v>21813</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -3965,13 +4001,13 @@
         <v>12775</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>38</v>
@@ -3980,13 +4016,13 @@
         <v>34588</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,13 +4037,13 @@
         <v>77319</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>43</v>
@@ -4016,13 +4052,13 @@
         <v>46016</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>124</v>
@@ -4031,13 +4067,13 @@
         <v>123335</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4088,13 @@
         <v>264426</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>256</v>
@@ -4067,13 +4103,13 @@
         <v>261793</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>535</v>
@@ -4082,13 +4118,13 @@
         <v>526219</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4139,13 @@
         <v>392383</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H31" s="7">
         <v>433</v>
@@ -4118,13 +4154,13 @@
         <v>450741</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>846</v>
@@ -4133,13 +4169,13 @@
         <v>843124</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4190,13 @@
         <v>185446</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="H32" s="7">
         <v>252</v>
@@ -4169,13 +4205,13 @@
         <v>267287</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>447</v>
@@ -4184,13 +4220,13 @@
         <v>452734</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4294,13 @@
         <v>72877</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>41</v>
@@ -4273,13 +4309,13 @@
         <v>41576</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>115</v>
@@ -4288,13 +4324,13 @@
         <v>114452</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>150</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4345,13 @@
         <v>227737</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>143</v>
@@ -4324,13 +4360,13 @@
         <v>146558</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M35" s="7">
         <v>367</v>
@@ -4339,13 +4375,13 @@
         <v>374295</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4396,13 @@
         <v>903964</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H36" s="7">
         <v>780</v>
@@ -4375,13 +4411,13 @@
         <v>788433</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M36" s="7">
         <v>1665</v>
@@ -4390,13 +4426,13 @@
         <v>1692398</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,7 +4504,7 @@
         <v>264</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="H38" s="7">
         <v>908</v>
@@ -4477,13 +4513,13 @@
         <v>941363</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M38" s="7">
         <v>1579</v>
@@ -4492,13 +4528,13 @@
         <v>1628064</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,7 +4590,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4575,7 +4611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3269B4-5AAF-42B4-BE24-BD547FE641C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87DC67E-3C19-4634-BA38-730694272688}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4592,7 +4628,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4699,7 +4735,7 @@
         <v>868</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>64</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
@@ -4780,13 +4816,13 @@
         <v>5183</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>70</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4837,13 @@
         <v>24610</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -4816,13 +4852,13 @@
         <v>10620</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M6" s="7">
         <v>36</v>
@@ -4831,13 +4867,13 @@
         <v>35230</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,13 +4888,13 @@
         <v>35410</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -4867,13 +4903,13 @@
         <v>28275</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -4882,13 +4918,13 @@
         <v>63685</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4939,13 @@
         <v>51723</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H8" s="7">
         <v>60</v>
@@ -4918,13 +4954,13 @@
         <v>69768</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M8" s="7">
         <v>115</v>
@@ -4933,13 +4969,13 @@
         <v>121491</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +5043,13 @@
         <v>5858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5022,13 +5058,13 @@
         <v>6108</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>314</v>
+        <v>106</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>315</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -5037,13 +5073,13 @@
         <v>11966</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>315</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>316</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>317</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5094,13 @@
         <v>24347</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>319</v>
+        <v>112</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -5073,13 +5109,13 @@
         <v>14812</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M11" s="7">
         <v>38</v>
@@ -5088,13 +5124,13 @@
         <v>39159</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5145,13 @@
         <v>112378</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H12" s="7">
         <v>80</v>
@@ -5163,10 +5199,10 @@
         <v>333</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>163</v>
+        <v>334</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -5175,13 +5211,13 @@
         <v>219410</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>400</v>
@@ -5190,13 +5226,13 @@
         <v>425613</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5247,13 @@
         <v>237847</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>343</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H14" s="7">
         <v>243</v>
@@ -5226,13 +5262,13 @@
         <v>258576</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>39</v>
+        <v>346</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M14" s="7">
         <v>467</v>
@@ -5241,13 +5277,13 @@
         <v>496423</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,7 +5339,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5315,13 +5351,13 @@
         <v>15400</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5330,13 +5366,13 @@
         <v>8279</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -5345,13 +5381,13 @@
         <v>23680</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>353</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>354</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5402,13 @@
         <v>52678</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -5381,13 +5417,13 @@
         <v>41174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>360</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -5396,13 +5432,13 @@
         <v>93852</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>363</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5453,13 @@
         <v>228971</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>366</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>297</v>
+        <v>367</v>
       </c>
       <c r="H18" s="7">
         <v>168</v>
@@ -5432,13 +5468,13 @@
         <v>184024</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M18" s="7">
         <v>383</v>
@@ -5447,13 +5483,13 @@
         <v>412995</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,13 +5504,13 @@
         <v>371337</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H19" s="7">
         <v>303</v>
@@ -5483,13 +5519,13 @@
         <v>334072</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M19" s="7">
         <v>637</v>
@@ -5498,13 +5534,13 @@
         <v>705409</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,13 +5555,13 @@
         <v>345510</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H20" s="7">
         <v>423</v>
@@ -5534,13 +5570,13 @@
         <v>461550</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M20" s="7">
         <v>744</v>
@@ -5549,13 +5585,13 @@
         <v>807060</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,7 +5647,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5623,13 +5659,13 @@
         <v>18298</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>391</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -5638,13 +5674,13 @@
         <v>9940</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>390</v>
+        <v>199</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -5653,13 +5689,13 @@
         <v>28238</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>394</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +5710,13 @@
         <v>31852</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>239</v>
+        <v>399</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -5689,10 +5725,10 @@
         <v>18600</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>398</v>
+        <v>110</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>399</v>
+        <v>239</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>400</v>
@@ -5797,7 +5833,7 @@
         <v>417</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>262</v>
+        <v>418</v>
       </c>
       <c r="M25" s="7">
         <v>542</v>
@@ -5806,13 +5842,13 @@
         <v>604996</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5863,13 @@
         <v>206342</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="H26" s="7">
         <v>237</v>
@@ -5845,10 +5881,10 @@
         <v>423</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M26" s="7">
         <v>424</v>
@@ -5857,13 +5893,13 @@
         <v>473041</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,7 +5955,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5931,13 +5967,13 @@
         <v>15182</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>429</v>
+        <v>277</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>349</v>
+        <v>430</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -5946,13 +5982,13 @@
         <v>10911</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>314</v>
+        <v>106</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>393</v>
+        <v>235</v>
       </c>
       <c r="M28" s="7">
         <v>26</v>
@@ -5961,13 +5997,13 @@
         <v>26093</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>17</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5982,13 +6018,13 @@
         <v>36693</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H29" s="7">
         <v>26</v>
@@ -5997,13 +6033,13 @@
         <v>27341</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>195</v>
+        <v>438</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M29" s="7">
         <v>63</v>
@@ -6012,13 +6048,13 @@
         <v>64034</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>439</v>
+        <v>22</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>359</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,13 +6069,13 @@
         <v>209887</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>26</v>
+        <v>442</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H30" s="7">
         <v>130</v>
@@ -6048,13 +6084,13 @@
         <v>135330</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M30" s="7">
         <v>335</v>
@@ -6063,13 +6099,13 @@
         <v>345217</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6084,13 +6120,13 @@
         <v>299090</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H31" s="7">
         <v>282</v>
@@ -6099,13 +6135,13 @@
         <v>291432</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>452</v>
+        <v>213</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M31" s="7">
         <v>570</v>
@@ -6114,13 +6150,13 @@
         <v>590522</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6135,13 +6171,13 @@
         <v>386886</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>335</v>
+        <v>459</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H32" s="7">
         <v>550</v>
@@ -6150,13 +6186,13 @@
         <v>581201</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M32" s="7">
         <v>915</v>
@@ -6165,13 +6201,13 @@
         <v>968087</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6239,13 +6275,13 @@
         <v>55607</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>465</v>
+        <v>195</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H34" s="7">
         <v>35</v>
@@ -6254,13 +6290,13 @@
         <v>36451</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>58</v>
+        <v>469</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>194</v>
+        <v>470</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>467</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>90</v>
@@ -6269,13 +6305,13 @@
         <v>92058</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>275</v>
+        <v>472</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>469</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,13 +6326,13 @@
         <v>148724</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="H35" s="7">
         <v>97</v>
@@ -6308,10 +6344,10 @@
         <v>19</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M35" s="7">
         <v>240</v>
@@ -6320,13 +6356,13 @@
         <v>252680</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,13 +6377,13 @@
         <v>781950</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>478</v>
+        <v>144</v>
       </c>
       <c r="H36" s="7">
         <v>545</v>
@@ -6356,13 +6392,13 @@
         <v>585032</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="M36" s="7">
         <v>1287</v>
@@ -6371,13 +6407,13 @@
         <v>1366982</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,13 +6428,13 @@
         <v>1204983</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="H37" s="7">
         <v>1101</v>
@@ -6407,13 +6443,13 @@
         <v>1185243</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="M37" s="7">
         <v>2211</v>
@@ -6422,13 +6458,13 @@
         <v>2390226</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,13 +6479,13 @@
         <v>1228309</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H38" s="7">
         <v>1513</v>
@@ -6458,13 +6494,13 @@
         <v>1637794</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="M38" s="7">
         <v>2665</v>
@@ -6473,13 +6509,13 @@
         <v>2866102</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6535,7 +6571,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -6556,7 +6592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FF6BAE-4D12-436A-897B-0A8BED6A6556}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0A6B69-604C-4DA8-9848-2F7BE181823F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6573,7 +6609,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6680,13 +6716,13 @@
         <v>2167</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6695,13 +6731,13 @@
         <v>1778</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6710,13 +6746,13 @@
         <v>3944</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6731,13 +6767,13 @@
         <v>6232</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6752,7 +6788,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>469</v>
+        <v>516</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -6764,10 +6800,10 @@
         <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>513</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6782,13 +6818,13 @@
         <v>26973</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="H6" s="7">
         <v>30</v>
@@ -6797,13 +6833,13 @@
         <v>30166</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>521</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="M6" s="7">
         <v>57</v>
@@ -6812,13 +6848,13 @@
         <v>57139</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6833,13 +6869,13 @@
         <v>30084</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -6848,13 +6884,13 @@
         <v>28147</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="M7" s="7">
         <v>59</v>
@@ -6863,13 +6899,13 @@
         <v>58231</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6884,13 +6920,13 @@
         <v>50058</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="H8" s="7">
         <v>53</v>
@@ -6899,13 +6935,13 @@
         <v>53269</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="M8" s="7">
         <v>101</v>
@@ -6914,13 +6950,13 @@
         <v>103328</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6988,13 +7024,13 @@
         <v>4675</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>544</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>504</v>
+        <v>546</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -7003,13 +7039,13 @@
         <v>7928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -7018,13 +7054,13 @@
         <v>12604</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>17</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7039,13 +7075,13 @@
         <v>19545</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -7054,13 +7090,13 @@
         <v>17611</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>317</v>
+        <v>557</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>149</v>
+        <v>558</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -7069,13 +7105,13 @@
         <v>37156</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,13 +7126,13 @@
         <v>114241</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="H12" s="7">
         <v>103</v>
@@ -7105,13 +7141,13 @@
         <v>105491</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="M12" s="7">
         <v>211</v>
@@ -7120,13 +7156,13 @@
         <v>219732</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7141,13 +7177,13 @@
         <v>248480</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="H13" s="7">
         <v>215</v>
@@ -7156,13 +7192,13 @@
         <v>215910</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="M13" s="7">
         <v>457</v>
@@ -7171,13 +7207,13 @@
         <v>464390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7192,13 +7228,13 @@
         <v>168271</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="H14" s="7">
         <v>206</v>
@@ -7207,13 +7243,13 @@
         <v>209644</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>573</v>
+        <v>130</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="M14" s="7">
         <v>368</v>
@@ -7222,13 +7258,13 @@
         <v>377915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7284,7 +7320,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7296,13 +7332,13 @@
         <v>10232</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>587</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>579</v>
+        <v>357</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -7311,13 +7347,13 @@
         <v>16920</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>352</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>436</v>
+        <v>589</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -7326,13 +7362,13 @@
         <v>27152</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>581</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7347,13 +7383,13 @@
         <v>44487</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>582</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -7362,13 +7398,13 @@
         <v>26913</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>593</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="M17" s="7">
         <v>67</v>
@@ -7377,13 +7413,13 @@
         <v>71400</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>588</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7398,13 +7434,13 @@
         <v>232413</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>597</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="H18" s="7">
         <v>189</v>
@@ -7413,13 +7449,13 @@
         <v>198896</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="M18" s="7">
         <v>406</v>
@@ -7428,13 +7464,13 @@
         <v>431309</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,13 +7485,13 @@
         <v>489608</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="H19" s="7">
         <v>462</v>
@@ -7464,13 +7500,13 @@
         <v>492445</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="M19" s="7">
         <v>921</v>
@@ -7479,13 +7515,13 @@
         <v>982054</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>347</v>
+        <v>611</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7500,13 +7536,13 @@
         <v>244605</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="H20" s="7">
         <v>283</v>
@@ -7515,13 +7551,13 @@
         <v>306646</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="M20" s="7">
         <v>506</v>
@@ -7530,13 +7566,13 @@
         <v>551251</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>412</v>
+        <v>619</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>214</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7592,7 +7628,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7604,13 +7640,13 @@
         <v>8609</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>622</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>316</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -7619,13 +7655,13 @@
         <v>8234</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -7634,13 +7670,13 @@
         <v>16842</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>627</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7655,13 +7691,13 @@
         <v>39903</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -7670,13 +7706,13 @@
         <v>22142</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>619</v>
+        <v>102</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="M23" s="7">
         <v>54</v>
@@ -7685,13 +7721,13 @@
         <v>62045</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7706,13 +7742,13 @@
         <v>200650</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>624</v>
+        <v>76</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="H24" s="7">
         <v>173</v>
@@ -7721,13 +7757,13 @@
         <v>179700</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="M24" s="7">
         <v>354</v>
@@ -7736,13 +7772,13 @@
         <v>380350</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7757,13 +7793,13 @@
         <v>322285</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="H25" s="7">
         <v>296</v>
@@ -7772,13 +7808,13 @@
         <v>316338</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="M25" s="7">
         <v>593</v>
@@ -7787,13 +7823,13 @@
         <v>638623</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>457</v>
+        <v>650</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7808,13 +7844,13 @@
         <v>177931</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="H26" s="7">
         <v>233</v>
@@ -7823,13 +7859,13 @@
         <v>252126</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="M26" s="7">
         <v>401</v>
@@ -7838,13 +7874,13 @@
         <v>430057</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7900,7 +7936,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7912,13 +7948,13 @@
         <v>12718</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>649</v>
+        <v>62</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>64</v>
+        <v>660</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>394</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -7930,10 +7966,10 @@
         <v>15</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="M28" s="7">
         <v>21</v>
@@ -7945,10 +7981,10 @@
         <v>275</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7963,13 +7999,13 @@
         <v>29812</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>620</v>
+        <v>666</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -7978,13 +8014,13 @@
         <v>24438</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>656</v>
+        <v>559</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>278</v>
+        <v>667</v>
       </c>
       <c r="M29" s="7">
         <v>53</v>
@@ -7993,13 +8029,13 @@
         <v>54251</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8014,13 +8050,13 @@
         <v>182903</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>264</v>
+        <v>671</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="H30" s="7">
         <v>143</v>
@@ -8029,13 +8065,13 @@
         <v>148236</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>516</v>
+        <v>676</v>
       </c>
       <c r="M30" s="7">
         <v>324</v>
@@ -8044,13 +8080,13 @@
         <v>331139</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,13 +8101,13 @@
         <v>415813</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>174</v>
+        <v>681</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="H31" s="7">
         <v>397</v>
@@ -8080,13 +8116,13 @@
         <v>429741</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="M31" s="7">
         <v>817</v>
@@ -8095,13 +8131,13 @@
         <v>845555</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>672</v>
+        <v>575</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8116,13 +8152,13 @@
         <v>294472</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="H32" s="7">
         <v>382</v>
@@ -8131,13 +8167,13 @@
         <v>426527</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="M32" s="7">
         <v>668</v>
@@ -8146,13 +8182,13 @@
         <v>721000</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>683</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8220,13 +8256,13 @@
         <v>38401</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>350</v>
+        <v>696</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="H34" s="7">
         <v>41</v>
@@ -8235,13 +8271,13 @@
         <v>43398</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>469</v>
+        <v>108</v>
       </c>
       <c r="M34" s="7">
         <v>79</v>
@@ -8250,13 +8286,13 @@
         <v>81799</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>513</v>
+        <v>23</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8271,13 +8307,13 @@
         <v>139981</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>587</v>
+        <v>702</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="H35" s="7">
         <v>86</v>
@@ -8286,13 +8322,13 @@
         <v>91104</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>691</v>
+        <v>514</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
       <c r="M35" s="7">
         <v>216</v>
@@ -8301,13 +8337,13 @@
         <v>231085</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>19</v>
+        <v>704</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8322,13 +8358,13 @@
         <v>757181</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>230</v>
+        <v>707</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>97</v>
+        <v>708</v>
       </c>
       <c r="H36" s="7">
         <v>638</v>
@@ -8337,13 +8373,13 @@
         <v>662488</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>695</v>
+        <v>408</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>697</v>
+        <v>371</v>
       </c>
       <c r="M36" s="7">
         <v>1352</v>
@@ -8352,13 +8388,13 @@
         <v>1419669</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>698</v>
+        <v>487</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>76</v>
+        <v>710</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8373,13 +8409,13 @@
         <v>1506272</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>700</v>
+        <v>647</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>701</v>
+        <v>575</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="H37" s="7">
         <v>1400</v>
@@ -8388,13 +8424,13 @@
         <v>1482581</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="M37" s="7">
         <v>2847</v>
@@ -8403,13 +8439,13 @@
         <v>2988853</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>419</v>
+        <v>717</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>133</v>
+        <v>718</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8424,13 +8460,13 @@
         <v>935337</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="H38" s="7">
         <v>1157</v>
@@ -8439,13 +8475,13 @@
         <v>1248213</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>487</v>
+        <v>419</v>
       </c>
       <c r="M38" s="7">
         <v>2044</v>
@@ -8454,13 +8490,13 @@
         <v>2183550</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8516,7 +8552,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
